--- a/temp_demands/昨日试听情况20171026.xlsx
+++ b/temp_demands/昨日试听情况20171026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
   <si>
     <t>试听ID</t>
   </si>
@@ -428,7 +428,7 @@
     <t>课后2 没跟孩子交流上，妈妈反馈了几点；1、内容简单；2、刚开始互动很少，担心挑不起孩子的学习兴趣；3最后讲题过程中孩子自己做自己的事情，对于老师说的，孩子抱有的心态不正确，觉得自己是正确就不听，妈妈希望在这类问题上药补充想类似的题目去巩固孩子。对于课程询问了正式课程内容的安排和询问上课环境嘈杂的愿意。课后流程完成，妈妈有点急躁。需要问问婧怡的意愿。</t>
   </si>
   <si>
-    <t>课后1 孩子妈妈说要和爸爸商量商量</t>
+    <t>课后2 妈妈觉得价格太贵 微信删了 座机也拉黑了 用自己的号码打 过去接了 说不学了  孩子也说不学了 就把电话给挂断了</t>
   </si>
   <si>
     <t>课后1;mingtian fukuan</t>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>课后2 不过孩子对今天的课不是很感冒，还在聊</t>
+  </si>
+  <si>
+    <t>课后1：家里务农，单亲，承受能力有限，后面选择职专！爱莫能助放弃</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1479,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>1899942</v>
       </c>
@@ -1515,6 +1518,9 @@
       </c>
       <c r="M17">
         <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
